--- a/agents/agent_profiles_source.xlsx
+++ b/agents/agent_profiles_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/Synthetic_Modeling/Synthetic_Modeling/agents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA6AFA-F435-314A-8F45-50F282A89A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7851272A-82D1-0C49-B5FB-7A30125A9144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banks" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="630">
   <si>
     <t>swift_code</t>
   </si>
@@ -1945,6 +1945,9 @@
   </si>
   <si>
     <t>BEnt</t>
+  </si>
+  <si>
+    <t>employer</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2073,9 +2076,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2350,9 +2352,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}" name="People" displayName="People" ref="A1:Q11" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:Q11" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}" name="People" displayName="People" ref="A1:R11" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:R11" xr:uid="{680087BA-8ED1-D24F-B249-1ED76B0B1B9E}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{454C68CE-6D61-204B-8CB8-44035D7E6904}" name="entity_id"/>
     <tableColumn id="15" xr3:uid="{6BC92FD9-3E9C-C046-8E16-AAC501BA3699}" name="type"/>
     <tableColumn id="16" xr3:uid="{BE1830A8-5950-8E45-B19C-D500345A264F}" name="sends"/>
@@ -2366,6 +2368,7 @@
     <tableColumn id="8" xr3:uid="{F9ACF06F-BD4C-2F48-810F-5FEC38C0EA74}" name="bank"/>
     <tableColumn id="9" xr3:uid="{5F4379A2-88B5-BA4A-97A7-109C85E4F3B4}" name="account_number"/>
     <tableColumn id="10" xr3:uid="{32052348-F470-2645-85B2-7E6468A98911}" name="employment_status"/>
+    <tableColumn id="18" xr3:uid="{E682BF38-44C7-4446-B451-89719FFEAB26}" name="employer"/>
     <tableColumn id="11" xr3:uid="{4EECB0F8-CF71-B743-A3CC-AE0E1DC4EEBE}" name="income_level"/>
     <tableColumn id="12" xr3:uid="{3436FD50-2241-464F-A1DD-E2A6DFCCE0A9}" name="transaction_scaler"/>
     <tableColumn id="13" xr3:uid="{97F0A11E-C7E6-0E4D-94E0-B5F1FB994AA4}" name="merchant_patterns" dataDxfId="10"/>
@@ -2402,14 +2405,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:K172" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:K172" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ATM"/>
-        <filter val="BankEntity"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K172" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K172">
     <sortCondition descending="1" ref="G1:G172"/>
   </sortState>
@@ -2869,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2882,14 +2878,14 @@
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="52" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="13" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="52" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>333</v>
       </c>
@@ -2930,19 +2926,22 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>538</v>
       </c>
@@ -2983,19 +2982,22 @@
         <v>56</v>
       </c>
       <c r="N2" t="s">
+        <v>363</v>
+      </c>
+      <c r="O2" t="s">
         <v>59</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>539</v>
       </c>
@@ -3035,20 +3037,20 @@
       <c r="M3" t="s">
         <v>57</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>540</v>
       </c>
@@ -3089,19 +3091,22 @@
         <v>56</v>
       </c>
       <c r="N4" t="s">
+        <v>358</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.5</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>541</v>
       </c>
@@ -3142,19 +3147,22 @@
         <v>56</v>
       </c>
       <c r="N5" t="s">
+        <v>365</v>
+      </c>
+      <c r="O5" t="s">
         <v>60</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>542</v>
       </c>
@@ -3195,19 +3203,22 @@
         <v>56</v>
       </c>
       <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>543</v>
       </c>
@@ -3247,20 +3258,20 @@
       <c r="M7" t="s">
         <v>58</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>59</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.5</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>544</v>
       </c>
@@ -3301,19 +3312,22 @@
         <v>56</v>
       </c>
       <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>545</v>
       </c>
@@ -3353,20 +3367,20 @@
       <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>546</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>566</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -3407,19 +3421,22 @@
         <v>56</v>
       </c>
       <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
         <v>60</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>547</v>
       </c>
@@ -3459,16 +3476,16 @@
       <c r="M11" t="s">
         <v>57</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>61</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.5</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3485,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4882,7 +4899,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -4917,7 +4934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>393</v>
       </c>
@@ -4952,7 +4969,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>455</v>
       </c>
@@ -4987,7 +5004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -5022,7 +5039,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>505</v>
       </c>
@@ -5057,7 +5074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -5092,7 +5109,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -5127,7 +5144,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>411</v>
       </c>
@@ -5162,7 +5179,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>464</v>
       </c>
@@ -5197,7 +5214,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>524</v>
       </c>
@@ -5232,7 +5249,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5302,7 +5319,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>401</v>
       </c>
@@ -5337,7 +5354,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>428</v>
       </c>
@@ -5372,7 +5389,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>430</v>
       </c>
@@ -5407,7 +5424,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>435</v>
       </c>
@@ -5442,7 +5459,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>449</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>463</v>
       </c>
@@ -5512,7 +5529,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>525</v>
       </c>
@@ -5547,7 +5564,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>530</v>
       </c>
@@ -5582,7 +5599,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>407</v>
       </c>
@@ -5617,7 +5634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>490</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>529</v>
       </c>
@@ -5687,7 +5704,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>433</v>
       </c>
@@ -5722,7 +5739,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>466</v>
       </c>
@@ -5757,7 +5774,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -5792,7 +5809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>495</v>
       </c>
@@ -5827,7 +5844,7 @@
         <v>166.666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>522</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>531</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>501</v>
       </c>
@@ -5932,7 +5949,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>502</v>
       </c>
@@ -5967,7 +5984,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>506</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>458</v>
       </c>
@@ -6037,7 +6054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>507</v>
       </c>
@@ -6072,7 +6089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>509</v>
       </c>
@@ -6107,7 +6124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>511</v>
       </c>
@@ -6177,7 +6194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>512</v>
       </c>
@@ -6212,7 +6229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>515</v>
       </c>
@@ -6247,7 +6264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>516</v>
       </c>
@@ -6282,7 +6299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>517</v>
       </c>
@@ -6317,7 +6334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>518</v>
       </c>
@@ -6352,7 +6369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>519</v>
       </c>
@@ -6387,7 +6404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>520</v>
       </c>
@@ -6422,7 +6439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>521</v>
       </c>
@@ -6457,7 +6474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -6492,7 +6509,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>409</v>
       </c>
@@ -6527,7 +6544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>412</v>
       </c>
@@ -6562,7 +6579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>424</v>
       </c>
@@ -6597,7 +6614,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>480</v>
       </c>
@@ -6632,7 +6649,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>503</v>
       </c>
@@ -6667,7 +6684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>414</v>
       </c>
@@ -6702,7 +6719,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>381</v>
       </c>
@@ -6737,7 +6754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>382</v>
       </c>
@@ -6772,7 +6789,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>383</v>
       </c>
@@ -6807,7 +6824,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>384</v>
       </c>
@@ -6842,7 +6859,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>396</v>
       </c>
@@ -6877,7 +6894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>436</v>
       </c>
@@ -6912,7 +6929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>437</v>
       </c>
@@ -6947,7 +6964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>438</v>
       </c>
@@ -6982,7 +6999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>470</v>
       </c>
@@ -7017,7 +7034,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>472</v>
       </c>
@@ -7052,7 +7069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>473</v>
       </c>
@@ -7087,7 +7104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -7122,7 +7139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>475</v>
       </c>
@@ -7157,7 +7174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>477</v>
       </c>
@@ -7192,7 +7209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>478</v>
       </c>
@@ -7227,7 +7244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>479</v>
       </c>
@@ -7262,7 +7279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>481</v>
       </c>
@@ -7297,7 +7314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>482</v>
       </c>
@@ -7332,7 +7349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -7367,7 +7384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>93</v>
       </c>
@@ -7402,7 +7419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>404</v>
       </c>
@@ -7437,7 +7454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>405</v>
       </c>
@@ -7472,7 +7489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>415</v>
       </c>
@@ -7507,7 +7524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>417</v>
       </c>
@@ -7542,7 +7559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>418</v>
       </c>
@@ -7577,7 +7594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>419</v>
       </c>
@@ -7612,7 +7629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>450</v>
       </c>
@@ -7647,7 +7664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>451</v>
       </c>
@@ -7682,7 +7699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>452</v>
       </c>
@@ -7717,7 +7734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>453</v>
       </c>
@@ -7752,7 +7769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>454</v>
       </c>
@@ -7787,7 +7804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>484</v>
       </c>
@@ -7822,7 +7839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>486</v>
       </c>
@@ -7857,7 +7874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>487</v>
       </c>
@@ -7892,7 +7909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>488</v>
       </c>
@@ -7927,7 +7944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -7962,7 +7979,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -7997,7 +8014,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -8032,7 +8049,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>386</v>
       </c>
@@ -8067,7 +8084,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>388</v>
       </c>
@@ -8102,7 +8119,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>389</v>
       </c>
@@ -8137,7 +8154,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>390</v>
       </c>
@@ -8172,7 +8189,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>391</v>
       </c>
@@ -8207,7 +8224,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>392</v>
       </c>
@@ -8242,7 +8259,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>448</v>
       </c>
@@ -8277,7 +8294,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -8312,7 +8329,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>371</v>
       </c>
@@ -8347,7 +8364,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>387</v>
       </c>
@@ -8382,7 +8399,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>410</v>
       </c>
@@ -8417,7 +8434,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>421</v>
       </c>
@@ -8452,7 +8469,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>468</v>
       </c>
@@ -8487,7 +8504,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>485</v>
       </c>
@@ -8522,7 +8539,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>489</v>
       </c>
@@ -8557,7 +8574,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -8592,7 +8609,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>528</v>
       </c>
@@ -8627,7 +8644,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>406</v>
       </c>
@@ -8662,7 +8679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>413</v>
       </c>
@@ -8697,7 +8714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>416</v>
       </c>
@@ -8732,7 +8749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>422</v>
       </c>
@@ -8767,7 +8784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>423</v>
       </c>
@@ -8802,7 +8819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>429</v>
       </c>
@@ -8837,7 +8854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>434</v>
       </c>
@@ -8872,7 +8889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>443</v>
       </c>
@@ -8907,7 +8924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>444</v>
       </c>
@@ -8942,7 +8959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>445</v>
       </c>
@@ -8977,7 +8994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>446</v>
       </c>
@@ -9012,7 +9029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -9047,7 +9064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>514</v>
       </c>
@@ -9082,7 +9099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>526</v>
       </c>
@@ -9117,7 +9134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>527</v>
       </c>
@@ -9152,7 +9169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>385</v>
       </c>
@@ -9187,7 +9204,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>513</v>
       </c>
@@ -9222,7 +9239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>431</v>
       </c>
@@ -9257,7 +9274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>439</v>
       </c>
@@ -9292,7 +9309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>456</v>
       </c>
@@ -9327,7 +9344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>471</v>
       </c>
@@ -9362,7 +9379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>491</v>
       </c>
@@ -9397,7 +9414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>403</v>
       </c>
@@ -9432,7 +9449,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>408</v>
       </c>
@@ -9467,7 +9484,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>476</v>
       </c>
@@ -9502,7 +9519,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>500</v>
       </c>
@@ -9537,7 +9554,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>372</v>
       </c>
@@ -9572,7 +9589,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>373</v>
       </c>
@@ -9607,7 +9624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>374</v>
       </c>
@@ -9642,7 +9659,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>377</v>
       </c>
@@ -9677,7 +9694,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>378</v>
       </c>
@@ -9712,7 +9729,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>379</v>
       </c>
@@ -9747,7 +9764,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>380</v>
       </c>
@@ -9782,7 +9799,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>394</v>
       </c>
@@ -9817,7 +9834,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>395</v>
       </c>
@@ -9852,7 +9869,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>397</v>
       </c>
@@ -9887,7 +9904,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>398</v>
       </c>
@@ -9922,7 +9939,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>399</v>
       </c>
@@ -9957,7 +9974,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>400</v>
       </c>
@@ -9992,7 +10009,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>402</v>
       </c>
@@ -10027,7 +10044,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>432</v>
       </c>
@@ -10062,7 +10079,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>459</v>
       </c>
@@ -10097,7 +10114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>460</v>
       </c>
@@ -10132,7 +10149,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>461</v>
       </c>
@@ -10167,7 +10184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>462</v>
       </c>
@@ -10202,7 +10219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>483</v>
       </c>
@@ -10237,7 +10254,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>493</v>
       </c>
@@ -10272,7 +10289,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>494</v>
       </c>
@@ -10307,7 +10324,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>496</v>
       </c>
@@ -10342,7 +10359,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>497</v>
       </c>
@@ -10377,7 +10394,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>498</v>
       </c>
@@ -10412,7 +10429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>376</v>
       </c>
@@ -10447,7 +10464,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>420</v>
       </c>
@@ -10482,7 +10499,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>425</v>
       </c>
@@ -10517,7 +10534,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>426</v>
       </c>
@@ -10552,7 +10569,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>427</v>
       </c>
@@ -10587,7 +10604,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>440</v>
       </c>
@@ -10622,7 +10639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>441</v>
       </c>
@@ -10657,7 +10674,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>442</v>
       </c>
@@ -10692,7 +10709,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>523</v>
       </c>
@@ -10727,7 +10744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -10762,7 +10779,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>447</v>
       </c>
@@ -10797,7 +10814,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>465</v>
       </c>
@@ -10832,7 +10849,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>504</v>
       </c>
@@ -10881,8 +10898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B215A134-84F3-1D41-9D8B-38A50BE16B3B}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10950,7 +10967,7 @@
       <c r="H2" s="9">
         <v>211</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="9"/>
@@ -10958,36 +10975,33 @@
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>605</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>628</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3" t="s">
         <v>599</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>522</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>588</v>
       </c>
-      <c r="H3" s="10">
-        <v>211</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3">
+        <v>211</v>
+      </c>
+      <c r="I3" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -11014,7 +11028,7 @@
       <c r="H4" s="9">
         <v>211</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" t="s">
         <v>103</v>
       </c>
       <c r="J4" s="9"/>
@@ -11022,36 +11036,33 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
         <v>607</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" t="s">
         <v>628</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="C5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" t="s">
         <v>601</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5">
         <v>522</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" t="s">
         <v>588</v>
       </c>
-      <c r="H5" s="10">
-        <v>513</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5">
+        <v>513</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -11078,7 +11089,7 @@
       <c r="H6" s="9">
         <v>513</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>105</v>
       </c>
       <c r="J6" s="9"/>
@@ -11086,36 +11097,33 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>609</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>628</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" t="s">
         <v>603</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <v>522</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" t="s">
         <v>588</v>
       </c>
-      <c r="H7" s="10">
-        <v>513</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7">
+        <v>513</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -11150,36 +11158,33 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>611</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>628</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" t="s">
+        <v>566</v>
+      </c>
+      <c r="E9" t="s">
         <v>592</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
         <v>522</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" t="s">
         <v>588</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9">
         <v>138</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -11214,36 +11219,33 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>613</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>628</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" t="s">
         <v>594</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
         <v>522</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" t="s">
         <v>588</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11">
         <v>138</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -11278,92 +11280,89 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>615</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>628</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" t="s">
+        <v>566</v>
+      </c>
+      <c r="E13" t="s">
         <v>596</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13">
         <v>522</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" t="s">
         <v>588</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13">
         <v>138</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>616</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>522</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>138</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" t="s">
         <v>617</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>628</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>566</v>
+      <c r="C15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>618</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15">
         <v>522</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" t="s">
         <v>619</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15">
         <v>138</v>
       </c>
       <c r="I15" s="9" t="s">
@@ -11371,28 +11370,28 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" t="s">
         <v>620</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" t="s">
         <v>566</v>
       </c>
       <c r="E16" t="s">
         <v>621</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16">
         <v>522</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" t="s">
         <v>619</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16">
         <v>138</v>
       </c>
       <c r="I16" s="9" t="s">
@@ -11400,89 +11399,89 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" t="s">
         <v>622</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>628</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>566</v>
+      <c r="C17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>625</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
         <v>522</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" t="s">
         <v>619</v>
       </c>
-      <c r="H17" s="10">
-        <v>211</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="H17">
+        <v>211</v>
+      </c>
+      <c r="I17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" t="s">
         <v>623</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" t="s">
+        <v>566</v>
+      </c>
+      <c r="D18" t="s">
         <v>566</v>
       </c>
       <c r="E18" t="s">
         <v>626</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18">
         <v>522</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" t="s">
         <v>619</v>
       </c>
-      <c r="H18" s="10">
-        <v>211</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="H18">
+        <v>211</v>
+      </c>
+      <c r="I18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" t="s">
         <v>624</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s">
         <v>628</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>566</v>
+      <c r="C19" t="s">
+        <v>566</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>627</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19">
         <v>522</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" t="s">
         <v>619</v>
       </c>
-      <c r="H19" s="10">
-        <v>513</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="H19">
+        <v>513</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>105</v>
       </c>
     </row>

--- a/agents/agent_profiles_source.xlsx
+++ b/agents/agent_profiles_source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/Synthetic_Modeling/Synthetic_Modeling/agents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7851272A-82D1-0C49-B5FB-7A30125A9144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E6235B-41A9-D44B-9395-F745A61C9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38060" yWindow="1680" windowWidth="33600" windowHeight="19140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="AccountNumberGenerator" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Merchants!$A$1:$K$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Merchants!$A$1:$L$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="648">
   <si>
     <t>swift_code</t>
   </si>
@@ -1110,15 +1110,6 @@
     <t>Cash, Check, Ccard, PoS</t>
   </si>
   <si>
-    <t>ACH, Cash, Check, Ccard, PoS</t>
-  </si>
-  <si>
-    <t>Cash, Check, Ccard, PoS, P2P</t>
-  </si>
-  <si>
-    <t>Cash, Check, Ccard, PoS, P2P, ACH</t>
-  </si>
-  <si>
     <t>ACH, Wire, C_Check, Cash</t>
   </si>
   <si>
@@ -1948,6 +1939,69 @@
   </si>
   <si>
     <t>employer</t>
+  </si>
+  <si>
+    <t>Cash, Check, Ccard, P2P, ACH</t>
+  </si>
+  <si>
+    <t>payment_probabilities</t>
+  </si>
+  <si>
+    <t>(.05,.15,.3,.4)</t>
+  </si>
+  <si>
+    <t>(.5,.5)</t>
+  </si>
+  <si>
+    <t>(.05,.2,.5,.25)</t>
+  </si>
+  <si>
+    <t>(.15,.35,.5,0)</t>
+  </si>
+  <si>
+    <t>(.3,.3,.2,.15,.05)</t>
+  </si>
+  <si>
+    <t>(.1,.1,.1,.2,.3,.2)</t>
+  </si>
+  <si>
+    <t>(.05,.3,.5,.15,0)</t>
+  </si>
+  <si>
+    <t>(.5,.2,.5,0)</t>
+  </si>
+  <si>
+    <t>(.5,.2,0,0.5)</t>
+  </si>
+  <si>
+    <t>(.25,.25,.3,.2)</t>
+  </si>
+  <si>
+    <t>(.3,.1,0,.6)</t>
+  </si>
+  <si>
+    <t>(.3,0,0,.7)</t>
+  </si>
+  <si>
+    <t>(.8,.2)</t>
+  </si>
+  <si>
+    <t>(.5,.1,.1,.3)</t>
+  </si>
+  <si>
+    <t>Cash, Check, PoS, P2P</t>
+  </si>
+  <si>
+    <t>Cash, Check,  PoS, P2P, ACH</t>
+  </si>
+  <si>
+    <t>(.1,.05,.6,.2,.05)</t>
+  </si>
+  <si>
+    <t>(.1,.1,0,.8)</t>
+  </si>
+  <si>
+    <t>(.05,.2,.4,.05,.3)</t>
   </si>
 </sst>
 </file>
@@ -2404,12 +2458,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:K172" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:K172" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F4F56D53-07F6-DE4C-A300-92F755A46222}" name="Merchants" displayName="Merchants" ref="A1:L172" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:L172" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L172">
     <sortCondition descending="1" ref="G1:G172"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{8F356CA6-12AD-304B-9D78-2A7F7B9315C6}" name="entity_id"/>
     <tableColumn id="15" xr3:uid="{27D25D70-222A-B140-ADA3-1B897AB292E2}" name="type"/>
     <tableColumn id="13" xr3:uid="{B69DFC47-83BA-B64E-83E0-9E7DABF6A1DC}" name="sends"/>
@@ -2420,6 +2474,7 @@
     <tableColumn id="6" xr3:uid="{447D751C-8BE5-8049-9B48-73A3B9A881C6}" name="bank"/>
     <tableColumn id="7" xr3:uid="{CE6D8C7F-7493-DD4A-BE69-9A32BAE68CC2}" name="account_number"/>
     <tableColumn id="11" xr3:uid="{B119C51B-5A8F-5B44-9391-B473716C04EF}" name="accepted_payment_methods"/>
+    <tableColumn id="8" xr3:uid="{FA2795BA-C27F-654A-9C9D-21E9CBF69E1F}" name="payment_probabilities"/>
     <tableColumn id="12" xr3:uid="{EC3F47FE-DF1C-C247-9D48-02A5B560E4A6}" name="average_expense"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2716,7 +2771,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2738,10 +2793,10 @@
         <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>85</v>
@@ -2756,12 +2811,12 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>120</v>
@@ -2770,7 +2825,7 @@
         <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E2" t="s">
         <v>119</v>
@@ -2793,7 +2848,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -2802,7 +2857,7 @@
         <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E3" t="s">
         <v>119</v>
@@ -2825,7 +2880,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
@@ -2834,7 +2889,7 @@
         <v>513</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
         <v>119</v>
@@ -2865,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2893,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -2926,33 +2981,33 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C2" t="s">
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2982,7 +3037,7 @@
         <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="O2" t="s">
         <v>59</v>
@@ -2994,15 +3049,15 @@
         <v>272</v>
       </c>
       <c r="R2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
@@ -3047,21 +3102,21 @@
         <v>273</v>
       </c>
       <c r="R3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -3091,7 +3146,7 @@
         <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O4" t="s">
         <v>59</v>
@@ -3103,21 +3158,21 @@
         <v>272</v>
       </c>
       <c r="R4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -3147,7 +3202,7 @@
         <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O5" t="s">
         <v>60</v>
@@ -3159,21 +3214,21 @@
         <v>273</v>
       </c>
       <c r="R5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -3215,15 +3270,15 @@
         <v>273</v>
       </c>
       <c r="R6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C7" t="s">
         <v>119</v>
@@ -3268,21 +3323,21 @@
         <v>272</v>
       </c>
       <c r="R7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -3324,15 +3379,15 @@
         <v>274</v>
       </c>
       <c r="R8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -3377,15 +3432,15 @@
         <v>273</v>
       </c>
       <c r="R9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -3433,15 +3488,15 @@
         <v>273</v>
       </c>
       <c r="R10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -3486,7 +3541,13 @@
         <v>274</v>
       </c>
       <c r="R11" t="s">
-        <v>536</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f>130/80</f>
+        <v>1.625</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3564,7 @@
   <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3532,10 +3593,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>85</v>
@@ -3556,13 +3617,13 @@
         <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>254</v>
@@ -3576,10 +3637,10 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
         <v>119</v>
@@ -3609,7 +3670,7 @@
         <v>288</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3629,7 +3690,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
@@ -3659,7 +3720,7 @@
         <v>288</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -3676,7 +3737,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
@@ -3706,7 +3767,7 @@
         <v>289</v>
       </c>
       <c r="L4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -3723,7 +3784,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -3753,7 +3814,7 @@
         <v>290</v>
       </c>
       <c r="L5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M5">
         <v>1.5</v>
@@ -3773,7 +3834,7 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
         <v>119</v>
@@ -3803,7 +3864,7 @@
         <v>290</v>
       </c>
       <c r="L6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -3820,7 +3881,7 @@
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C7" t="s">
         <v>119</v>
@@ -3850,7 +3911,7 @@
         <v>290</v>
       </c>
       <c r="L7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -3870,7 +3931,7 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
@@ -3900,7 +3961,7 @@
         <v>290</v>
       </c>
       <c r="L8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -3920,7 +3981,7 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -3950,7 +4011,7 @@
         <v>290</v>
       </c>
       <c r="L9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -3970,7 +4031,7 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C10" t="s">
         <v>119</v>
@@ -4000,7 +4061,7 @@
         <v>290</v>
       </c>
       <c r="L10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M10">
         <v>1.5</v>
@@ -4020,7 +4081,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -4050,7 +4111,7 @@
         <v>290</v>
       </c>
       <c r="L11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M11">
         <v>0.75</v>
@@ -4067,10 +4128,10 @@
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C12" t="s">
         <v>119</v>
@@ -4100,7 +4161,7 @@
         <v>291</v>
       </c>
       <c r="L12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M12">
         <v>0.5</v>
@@ -4114,10 +4175,10 @@
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C13" t="s">
         <v>119</v>
@@ -4147,7 +4208,7 @@
         <v>291</v>
       </c>
       <c r="L13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M13">
         <v>0.5</v>
@@ -4164,10 +4225,10 @@
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C14" t="s">
         <v>119</v>
@@ -4197,7 +4258,7 @@
         <v>291</v>
       </c>
       <c r="L14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M14">
         <v>0.5</v>
@@ -4214,10 +4275,10 @@
     </row>
     <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C15" t="s">
         <v>119</v>
@@ -4247,7 +4308,7 @@
         <v>292</v>
       </c>
       <c r="L15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M15">
         <v>1.5</v>
@@ -4264,10 +4325,10 @@
     </row>
     <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C16" t="s">
         <v>119</v>
@@ -4297,7 +4358,7 @@
         <v>292</v>
       </c>
       <c r="L16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -4314,10 +4375,10 @@
     </row>
     <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C17" t="s">
         <v>119</v>
@@ -4347,7 +4408,7 @@
         <v>292</v>
       </c>
       <c r="L17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -4364,10 +4425,10 @@
     </row>
     <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C18" t="s">
         <v>119</v>
@@ -4397,7 +4458,7 @@
         <v>294</v>
       </c>
       <c r="L18" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M18">
         <v>0.5</v>
@@ -4414,10 +4475,10 @@
     </row>
     <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C19" t="s">
         <v>119</v>
@@ -4447,7 +4508,7 @@
         <v>294</v>
       </c>
       <c r="L19" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M19">
         <v>0.5</v>
@@ -4464,10 +4525,10 @@
     </row>
     <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C20" t="s">
         <v>119</v>
@@ -4497,7 +4558,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -4514,10 +4575,10 @@
     </row>
     <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -4547,7 +4608,7 @@
         <v>295</v>
       </c>
       <c r="L21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -4564,10 +4625,10 @@
     </row>
     <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -4597,7 +4658,7 @@
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -4611,10 +4672,10 @@
     </row>
     <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C23" t="s">
         <v>119</v>
@@ -4644,7 +4705,7 @@
         <v>288</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M23" s="8">
         <v>0.75</v>
@@ -4661,10 +4722,10 @@
     </row>
     <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
@@ -4694,7 +4755,7 @@
         <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M24">
         <v>0.5</v>
@@ -4843,10 +4904,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4863,7 +4924,7 @@
     <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>333</v>
       </c>
@@ -4871,10 +4932,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>85</v>
@@ -4895,19 +4956,22 @@
         <v>86</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D2" t="s">
         <v>119</v>
@@ -4919,7 +4983,7 @@
         <v>483</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H2">
         <v>211</v>
@@ -4928,21 +4992,24 @@
         <v>438158179</v>
       </c>
       <c r="J2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K2">
+        <v>353</v>
+      </c>
+      <c r="K2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
         <v>119</v>
@@ -4963,21 +5030,24 @@
         <v>227094313</v>
       </c>
       <c r="J3" t="s">
-        <v>356</v>
-      </c>
-      <c r="K3">
+        <v>353</v>
+      </c>
+      <c r="K3" t="s">
+        <v>629</v>
+      </c>
+      <c r="L3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
         <v>119</v>
@@ -4998,21 +5068,24 @@
         <v>248243311</v>
       </c>
       <c r="J4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K4">
+        <v>353</v>
+      </c>
+      <c r="K4" t="s">
+        <v>629</v>
+      </c>
+      <c r="L4">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
@@ -5033,21 +5106,24 @@
         <v>789955841</v>
       </c>
       <c r="J5" t="s">
-        <v>356</v>
-      </c>
-      <c r="K5">
+        <v>353</v>
+      </c>
+      <c r="K5" t="s">
+        <v>629</v>
+      </c>
+      <c r="L5">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
         <v>119</v>
@@ -5068,21 +5144,24 @@
         <v>132746240</v>
       </c>
       <c r="J6" t="s">
-        <v>356</v>
-      </c>
-      <c r="K6">
+        <v>353</v>
+      </c>
+      <c r="K6" t="s">
+        <v>629</v>
+      </c>
+      <c r="L6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D7" t="s">
         <v>119</v>
@@ -5103,21 +5182,24 @@
         <v>628691073</v>
       </c>
       <c r="J7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K7">
+        <v>353</v>
+      </c>
+      <c r="K7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L7">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D8" t="s">
         <v>119</v>
@@ -5129,7 +5211,7 @@
         <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H8">
         <v>513</v>
@@ -5138,21 +5220,24 @@
         <v>894563124</v>
       </c>
       <c r="J8" t="s">
-        <v>350</v>
-      </c>
-      <c r="K8">
+        <v>353</v>
+      </c>
+      <c r="K8" t="s">
+        <v>629</v>
+      </c>
+      <c r="L8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D9" t="s">
         <v>119</v>
@@ -5164,7 +5249,7 @@
         <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H9">
         <v>513</v>
@@ -5173,21 +5258,24 @@
         <v>472561003</v>
       </c>
       <c r="J9" t="s">
-        <v>350</v>
-      </c>
-      <c r="K9">
+        <v>353</v>
+      </c>
+      <c r="K9" t="s">
+        <v>629</v>
+      </c>
+      <c r="L9">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
@@ -5199,7 +5287,7 @@
         <v>221</v>
       </c>
       <c r="G10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H10">
         <v>211</v>
@@ -5208,21 +5296,24 @@
         <v>505079988</v>
       </c>
       <c r="J10" t="s">
-        <v>350</v>
-      </c>
-      <c r="K10">
+        <v>353</v>
+      </c>
+      <c r="K10" t="s">
+        <v>629</v>
+      </c>
+      <c r="L10">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
@@ -5234,7 +5325,7 @@
         <v>221</v>
       </c>
       <c r="G11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H11">
         <v>513</v>
@@ -5243,21 +5334,24 @@
         <v>591219077</v>
       </c>
       <c r="J11" t="s">
-        <v>350</v>
-      </c>
-      <c r="K11">
+        <v>353</v>
+      </c>
+      <c r="K11" t="s">
+        <v>629</v>
+      </c>
+      <c r="L11">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D12" t="s">
         <v>119</v>
@@ -5269,7 +5363,7 @@
         <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H12">
         <v>211</v>
@@ -5280,19 +5374,22 @@
       <c r="J12" t="s">
         <v>97</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>630</v>
+      </c>
+      <c r="L12">
         <v>750</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D13" t="s">
         <v>119</v>
@@ -5304,7 +5401,7 @@
         <v>238</v>
       </c>
       <c r="G13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H13">
         <v>513</v>
@@ -5315,19 +5412,22 @@
       <c r="J13" t="s">
         <v>348</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>631</v>
+      </c>
+      <c r="L13">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C14" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D14" t="s">
         <v>119</v>
@@ -5339,7 +5439,7 @@
         <v>238</v>
       </c>
       <c r="G14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H14">
         <v>513</v>
@@ -5350,19 +5450,22 @@
       <c r="J14" t="s">
         <v>348</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="s">
+        <v>631</v>
+      </c>
+      <c r="L14">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D15" t="s">
         <v>119</v>
@@ -5374,7 +5477,7 @@
         <v>238</v>
       </c>
       <c r="G15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H15">
         <v>513</v>
@@ -5385,19 +5488,22 @@
       <c r="J15" t="s">
         <v>348</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="s">
+        <v>631</v>
+      </c>
+      <c r="L15">
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D16" t="s">
         <v>119</v>
@@ -5409,7 +5515,7 @@
         <v>238</v>
       </c>
       <c r="G16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H16">
         <v>513</v>
@@ -5420,19 +5526,22 @@
       <c r="J16" t="s">
         <v>348</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="s">
+        <v>631</v>
+      </c>
+      <c r="L16">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C17" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D17" t="s">
         <v>119</v>
@@ -5444,7 +5553,7 @@
         <v>238</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H17">
         <v>211</v>
@@ -5455,19 +5564,22 @@
       <c r="J17" t="s">
         <v>348</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="s">
+        <v>631</v>
+      </c>
+      <c r="L17">
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C18" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -5479,7 +5591,7 @@
         <v>238</v>
       </c>
       <c r="G18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H18">
         <v>211</v>
@@ -5490,19 +5602,22 @@
       <c r="J18" t="s">
         <v>348</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="s">
+        <v>631</v>
+      </c>
+      <c r="L18">
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C19" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D19" t="s">
         <v>119</v>
@@ -5514,7 +5629,7 @@
         <v>238</v>
       </c>
       <c r="G19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H19">
         <v>211</v>
@@ -5525,19 +5640,22 @@
       <c r="J19" t="s">
         <v>348</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="s">
+        <v>631</v>
+      </c>
+      <c r="L19">
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C20" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D20" t="s">
         <v>119</v>
@@ -5549,7 +5667,7 @@
         <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H20">
         <v>211</v>
@@ -5560,19 +5678,22 @@
       <c r="J20" t="s">
         <v>348</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="s">
+        <v>632</v>
+      </c>
+      <c r="L20">
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D21" t="s">
         <v>119</v>
@@ -5584,7 +5705,7 @@
         <v>238</v>
       </c>
       <c r="G21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H21">
         <v>211</v>
@@ -5595,31 +5716,34 @@
       <c r="J21" t="s">
         <v>348</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="s">
+        <v>632</v>
+      </c>
+      <c r="L21">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B22" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D22" t="s">
         <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F22">
         <v>811</v>
       </c>
       <c r="G22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H22">
         <v>211</v>
@@ -5628,21 +5752,24 @@
         <v>885049365</v>
       </c>
       <c r="J22" t="s">
-        <v>352</v>
-      </c>
-      <c r="K22">
+        <v>627</v>
+      </c>
+      <c r="K22" t="s">
+        <v>633</v>
+      </c>
+      <c r="L22">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D23" t="s">
         <v>119</v>
@@ -5654,7 +5781,7 @@
         <v>811</v>
       </c>
       <c r="G23" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H23">
         <v>513</v>
@@ -5663,21 +5790,24 @@
         <v>248005545</v>
       </c>
       <c r="J23" t="s">
-        <v>352</v>
-      </c>
-      <c r="K23">
+        <v>627</v>
+      </c>
+      <c r="K23" t="s">
+        <v>633</v>
+      </c>
+      <c r="L23">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C24" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D24" t="s">
         <v>119</v>
@@ -5689,7 +5819,7 @@
         <v>811</v>
       </c>
       <c r="G24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H24">
         <v>513</v>
@@ -5698,21 +5828,24 @@
         <v>236846951</v>
       </c>
       <c r="J24" t="s">
-        <v>352</v>
-      </c>
-      <c r="K24">
+        <v>627</v>
+      </c>
+      <c r="K24" t="s">
+        <v>633</v>
+      </c>
+      <c r="L24">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D25" t="s">
         <v>119</v>
@@ -5724,7 +5857,7 @@
         <v>532</v>
       </c>
       <c r="G25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H25">
         <v>211</v>
@@ -5733,21 +5866,24 @@
         <v>516667443</v>
       </c>
       <c r="J25" t="s">
-        <v>354</v>
-      </c>
-      <c r="K25">
+        <v>351</v>
+      </c>
+      <c r="K25" t="s">
+        <v>634</v>
+      </c>
+      <c r="L25">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C26" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
@@ -5759,7 +5895,7 @@
         <v>532</v>
       </c>
       <c r="G26" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H26">
         <v>211</v>
@@ -5768,21 +5904,24 @@
         <v>267051587</v>
       </c>
       <c r="J26" t="s">
-        <v>354</v>
-      </c>
-      <c r="K26">
+        <v>351</v>
+      </c>
+      <c r="K26" t="s">
+        <v>634</v>
+      </c>
+      <c r="L26">
         <v>2500</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -5794,7 +5933,7 @@
         <v>532</v>
       </c>
       <c r="G27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H27">
         <v>513</v>
@@ -5803,21 +5942,24 @@
         <v>667224022</v>
       </c>
       <c r="J27" t="s">
-        <v>354</v>
-      </c>
-      <c r="K27">
+        <v>351</v>
+      </c>
+      <c r="K27" t="s">
+        <v>634</v>
+      </c>
+      <c r="L27">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D28" t="s">
         <v>119</v>
@@ -5829,7 +5971,7 @@
         <v>532</v>
       </c>
       <c r="G28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H28">
         <v>211</v>
@@ -5838,21 +5980,24 @@
         <v>266781357</v>
       </c>
       <c r="J28" t="s">
-        <v>354</v>
-      </c>
-      <c r="K28">
+        <v>351</v>
+      </c>
+      <c r="K28" t="s">
+        <v>634</v>
+      </c>
+      <c r="L28">
         <v>166.666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B29" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D29" t="s">
         <v>119</v>
@@ -5864,7 +6009,7 @@
         <v>532</v>
       </c>
       <c r="G29" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H29">
         <v>513</v>
@@ -5873,21 +6018,24 @@
         <v>275415484</v>
       </c>
       <c r="J29" t="s">
-        <v>354</v>
-      </c>
-      <c r="K29">
+        <v>351</v>
+      </c>
+      <c r="K29" t="s">
+        <v>634</v>
+      </c>
+      <c r="L29">
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B30" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D30" t="s">
         <v>119</v>
@@ -5899,7 +6047,7 @@
         <v>532</v>
       </c>
       <c r="G30" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H30">
         <v>513</v>
@@ -5908,21 +6056,24 @@
         <v>413523534</v>
       </c>
       <c r="J30" t="s">
-        <v>354</v>
-      </c>
-      <c r="K30">
+        <v>351</v>
+      </c>
+      <c r="K30" t="s">
+        <v>634</v>
+      </c>
+      <c r="L30">
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D31" t="s">
         <v>119</v>
@@ -5934,7 +6085,7 @@
         <v>541</v>
       </c>
       <c r="G31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H31">
         <v>138</v>
@@ -5943,21 +6094,24 @@
         <v>986802350</v>
       </c>
       <c r="J31" t="s">
-        <v>352</v>
-      </c>
-      <c r="K31">
+        <v>627</v>
+      </c>
+      <c r="K31" t="s">
+        <v>635</v>
+      </c>
+      <c r="L31">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B32" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C32" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D32" t="s">
         <v>119</v>
@@ -5969,7 +6123,7 @@
         <v>541</v>
       </c>
       <c r="G32" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H32">
         <v>513</v>
@@ -5978,21 +6132,24 @@
         <v>373837396</v>
       </c>
       <c r="J32" t="s">
-        <v>352</v>
-      </c>
-      <c r="K32">
+        <v>627</v>
+      </c>
+      <c r="K32" t="s">
+        <v>635</v>
+      </c>
+      <c r="L32">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D33" t="s">
         <v>119</v>
@@ -6004,7 +6161,7 @@
         <v>541</v>
       </c>
       <c r="G33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H33">
         <v>513</v>
@@ -6013,21 +6170,24 @@
         <v>461861375</v>
       </c>
       <c r="J33" t="s">
-        <v>352</v>
-      </c>
-      <c r="K33">
+        <v>627</v>
+      </c>
+      <c r="K33" t="s">
+        <v>635</v>
+      </c>
+      <c r="L33">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B34" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C34" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D34" t="s">
         <v>119</v>
@@ -6039,7 +6199,7 @@
         <v>491</v>
       </c>
       <c r="G34" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H34">
         <v>211</v>
@@ -6050,19 +6210,22 @@
       <c r="J34" t="s">
         <v>349</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="s">
+        <v>636</v>
+      </c>
+      <c r="L34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B35" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C35" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D35" t="s">
         <v>119</v>
@@ -6074,7 +6237,7 @@
         <v>491</v>
       </c>
       <c r="G35" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H35">
         <v>513</v>
@@ -6085,19 +6248,22 @@
       <c r="J35" t="s">
         <v>349</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="s">
+        <v>636</v>
+      </c>
+      <c r="L35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B36" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C36" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D36" t="s">
         <v>119</v>
@@ -6109,7 +6275,7 @@
         <v>491</v>
       </c>
       <c r="G36" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H36">
         <v>513</v>
@@ -6120,19 +6286,22 @@
       <c r="J36" t="s">
         <v>349</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="s">
+        <v>636</v>
+      </c>
+      <c r="L36">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B37" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C37" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D37" t="s">
         <v>119</v>
@@ -6144,7 +6313,7 @@
         <v>491</v>
       </c>
       <c r="G37" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H37">
         <v>211</v>
@@ -6155,19 +6324,22 @@
       <c r="J37" t="s">
         <v>349</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="s">
+        <v>636</v>
+      </c>
+      <c r="L37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B38" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C38" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D38" t="s">
         <v>119</v>
@@ -6179,7 +6351,7 @@
         <v>491</v>
       </c>
       <c r="G38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H38">
         <v>211</v>
@@ -6190,19 +6362,22 @@
       <c r="J38" t="s">
         <v>349</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="s">
+        <v>636</v>
+      </c>
+      <c r="L38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C39" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D39" t="s">
         <v>119</v>
@@ -6214,7 +6389,7 @@
         <v>491</v>
       </c>
       <c r="G39" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H39">
         <v>211</v>
@@ -6225,19 +6400,22 @@
       <c r="J39" t="s">
         <v>349</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="s">
+        <v>636</v>
+      </c>
+      <c r="L39">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C40" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D40" t="s">
         <v>119</v>
@@ -6249,7 +6427,7 @@
         <v>491</v>
       </c>
       <c r="G40" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H40">
         <v>211</v>
@@ -6260,19 +6438,22 @@
       <c r="J40" t="s">
         <v>349</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="s">
+        <v>636</v>
+      </c>
+      <c r="L40">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B41" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C41" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D41" t="s">
         <v>119</v>
@@ -6284,7 +6465,7 @@
         <v>491</v>
       </c>
       <c r="G41" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H41">
         <v>211</v>
@@ -6295,19 +6476,22 @@
       <c r="J41" t="s">
         <v>349</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="s">
+        <v>636</v>
+      </c>
+      <c r="L41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B42" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C42" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
@@ -6319,7 +6503,7 @@
         <v>491</v>
       </c>
       <c r="G42" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H42">
         <v>513</v>
@@ -6330,19 +6514,22 @@
       <c r="J42" t="s">
         <v>349</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="s">
+        <v>636</v>
+      </c>
+      <c r="L42">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B43" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C43" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D43" t="s">
         <v>119</v>
@@ -6354,7 +6541,7 @@
         <v>491</v>
       </c>
       <c r="G43" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H43">
         <v>513</v>
@@ -6365,19 +6552,22 @@
       <c r="J43" t="s">
         <v>349</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="s">
+        <v>636</v>
+      </c>
+      <c r="L43">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B44" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C44" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D44" t="s">
         <v>119</v>
@@ -6389,7 +6579,7 @@
         <v>491</v>
       </c>
       <c r="G44" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H44">
         <v>211</v>
@@ -6400,19 +6590,22 @@
       <c r="J44" t="s">
         <v>349</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="s">
+        <v>636</v>
+      </c>
+      <c r="L44">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B45" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C45" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D45" t="s">
         <v>119</v>
@@ -6424,7 +6617,7 @@
         <v>491</v>
       </c>
       <c r="G45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H45">
         <v>138</v>
@@ -6435,19 +6628,22 @@
       <c r="J45" t="s">
         <v>349</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="s">
+        <v>636</v>
+      </c>
+      <c r="L45">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B46" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C46" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D46" t="s">
         <v>119</v>
@@ -6459,7 +6655,7 @@
         <v>491</v>
       </c>
       <c r="G46" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H46">
         <v>211</v>
@@ -6470,19 +6666,22 @@
       <c r="J46" t="s">
         <v>349</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="s">
+        <v>636</v>
+      </c>
+      <c r="L46">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C47" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D47" t="s">
         <v>119</v>
@@ -6494,7 +6693,7 @@
         <v>339</v>
       </c>
       <c r="G47" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H47">
         <v>513</v>
@@ -6505,19 +6704,22 @@
       <c r="J47" t="s">
         <v>349</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="s">
+        <v>637</v>
+      </c>
+      <c r="L47">
         <v>1200</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C48" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D48" t="s">
         <v>119</v>
@@ -6529,7 +6731,7 @@
         <v>524</v>
       </c>
       <c r="G48" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H48">
         <v>513</v>
@@ -6538,21 +6740,24 @@
         <v>936702836</v>
       </c>
       <c r="J48" t="s">
-        <v>353</v>
-      </c>
-      <c r="K48">
+        <v>350</v>
+      </c>
+      <c r="K48" t="s">
+        <v>638</v>
+      </c>
+      <c r="L48">
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C49" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D49" t="s">
         <v>119</v>
@@ -6564,7 +6769,7 @@
         <v>524</v>
       </c>
       <c r="G49" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H49">
         <v>513</v>
@@ -6573,21 +6778,24 @@
         <v>990432185</v>
       </c>
       <c r="J49" t="s">
-        <v>353</v>
-      </c>
-      <c r="K49">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>638</v>
+      </c>
+      <c r="L49">
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C50" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D50" t="s">
         <v>119</v>
@@ -6599,7 +6807,7 @@
         <v>524</v>
       </c>
       <c r="G50" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H50">
         <v>513</v>
@@ -6608,21 +6816,24 @@
         <v>498790414</v>
       </c>
       <c r="J50" t="s">
-        <v>353</v>
-      </c>
-      <c r="K50">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>638</v>
+      </c>
+      <c r="L50">
         <v>4500</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D51" t="s">
         <v>119</v>
@@ -6634,7 +6845,7 @@
         <v>524</v>
       </c>
       <c r="G51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H51">
         <v>138</v>
@@ -6643,21 +6854,24 @@
         <v>453897225</v>
       </c>
       <c r="J51" t="s">
-        <v>353</v>
-      </c>
-      <c r="K51">
+        <v>350</v>
+      </c>
+      <c r="K51" t="s">
+        <v>638</v>
+      </c>
+      <c r="L51">
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B52" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C52" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -6669,7 +6883,7 @@
         <v>524</v>
       </c>
       <c r="G52" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H52">
         <v>211</v>
@@ -6678,21 +6892,24 @@
         <v>352787726</v>
       </c>
       <c r="J52" t="s">
-        <v>353</v>
-      </c>
-      <c r="K52">
+        <v>350</v>
+      </c>
+      <c r="K52" t="s">
+        <v>638</v>
+      </c>
+      <c r="L52">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C53" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D53" t="s">
         <v>119</v>
@@ -6715,19 +6932,22 @@
       <c r="J53" t="s">
         <v>349</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="s">
+        <v>639</v>
+      </c>
+      <c r="L53">
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C54" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D54" t="s">
         <v>119</v>
@@ -6750,19 +6970,22 @@
       <c r="J54" t="s">
         <v>349</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="s">
+        <v>639</v>
+      </c>
+      <c r="L54">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C55" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D55" t="s">
         <v>119</v>
@@ -6785,19 +7008,22 @@
       <c r="J55" t="s">
         <v>349</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="s">
+        <v>639</v>
+      </c>
+      <c r="L55">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C56" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D56" t="s">
         <v>119</v>
@@ -6820,19 +7046,22 @@
       <c r="J56" t="s">
         <v>349</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="s">
+        <v>639</v>
+      </c>
+      <c r="L56">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C57" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D57" t="s">
         <v>119</v>
@@ -6855,19 +7084,22 @@
       <c r="J57" t="s">
         <v>349</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="s">
+        <v>639</v>
+      </c>
+      <c r="L57">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B58" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C58" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D58" t="s">
         <v>119</v>
@@ -6890,19 +7122,22 @@
       <c r="J58" t="s">
         <v>349</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="s">
+        <v>639</v>
+      </c>
+      <c r="L58">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C59" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D59" t="s">
         <v>119</v>
@@ -6925,19 +7160,22 @@
       <c r="J59" t="s">
         <v>349</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="s">
+        <v>639</v>
+      </c>
+      <c r="L59">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C60" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D60" t="s">
         <v>119</v>
@@ -6960,19 +7198,22 @@
       <c r="J60" t="s">
         <v>349</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="s">
+        <v>639</v>
+      </c>
+      <c r="L60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C61" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D61" t="s">
         <v>119</v>
@@ -6995,19 +7236,22 @@
       <c r="J61" t="s">
         <v>349</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="s">
+        <v>639</v>
+      </c>
+      <c r="L61">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C62" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D62" t="s">
         <v>119</v>
@@ -7030,19 +7274,22 @@
       <c r="J62" t="s">
         <v>349</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="s">
+        <v>639</v>
+      </c>
+      <c r="L62">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C63" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D63" t="s">
         <v>119</v>
@@ -7065,19 +7312,22 @@
       <c r="J63" t="s">
         <v>349</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="s">
+        <v>639</v>
+      </c>
+      <c r="L63">
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C64" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D64" t="s">
         <v>119</v>
@@ -7100,19 +7350,22 @@
       <c r="J64" t="s">
         <v>349</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="s">
+        <v>639</v>
+      </c>
+      <c r="L64">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C65" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D65" t="s">
         <v>119</v>
@@ -7135,19 +7388,22 @@
       <c r="J65" t="s">
         <v>349</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="s">
+        <v>639</v>
+      </c>
+      <c r="L65">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C66" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D66" t="s">
         <v>119</v>
@@ -7170,19 +7426,22 @@
       <c r="J66" t="s">
         <v>349</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="s">
+        <v>639</v>
+      </c>
+      <c r="L66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C67" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D67" t="s">
         <v>119</v>
@@ -7205,19 +7464,22 @@
       <c r="J67" t="s">
         <v>349</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="s">
+        <v>639</v>
+      </c>
+      <c r="L67">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C68" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D68" t="s">
         <v>119</v>
@@ -7240,19 +7502,22 @@
       <c r="J68" t="s">
         <v>349</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="s">
+        <v>639</v>
+      </c>
+      <c r="L68">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C69" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -7275,19 +7540,22 @@
       <c r="J69" t="s">
         <v>349</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="s">
+        <v>639</v>
+      </c>
+      <c r="L69">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C70" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D70" t="s">
         <v>119</v>
@@ -7310,19 +7578,22 @@
       <c r="J70" t="s">
         <v>349</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="s">
+        <v>639</v>
+      </c>
+      <c r="L70">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C71" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D71" t="s">
         <v>119</v>
@@ -7345,19 +7616,22 @@
       <c r="J71" t="s">
         <v>349</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="s">
+        <v>639</v>
+      </c>
+      <c r="L71">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C72" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D72" t="s">
         <v>119</v>
@@ -7380,19 +7654,22 @@
       <c r="J72" t="s">
         <v>349</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="s">
+        <v>639</v>
+      </c>
+      <c r="L72">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C73" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D73" t="s">
         <v>119</v>
@@ -7415,19 +7692,22 @@
       <c r="J73" t="s">
         <v>349</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="s">
+        <v>639</v>
+      </c>
+      <c r="L73">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C74" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D74" t="s">
         <v>119</v>
@@ -7450,19 +7730,22 @@
       <c r="J74" t="s">
         <v>349</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="s">
+        <v>639</v>
+      </c>
+      <c r="L74">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B75" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C75" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D75" t="s">
         <v>119</v>
@@ -7485,19 +7768,22 @@
       <c r="J75" t="s">
         <v>349</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="s">
+        <v>639</v>
+      </c>
+      <c r="L75">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C76" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D76" t="s">
         <v>119</v>
@@ -7520,19 +7806,22 @@
       <c r="J76" t="s">
         <v>349</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="s">
+        <v>639</v>
+      </c>
+      <c r="L76">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B77" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C77" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D77" t="s">
         <v>119</v>
@@ -7555,19 +7844,22 @@
       <c r="J77" t="s">
         <v>349</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="s">
+        <v>639</v>
+      </c>
+      <c r="L77">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B78" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C78" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D78" t="s">
         <v>119</v>
@@ -7590,19 +7882,22 @@
       <c r="J78" t="s">
         <v>349</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="s">
+        <v>639</v>
+      </c>
+      <c r="L78">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C79" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D79" t="s">
         <v>119</v>
@@ -7625,19 +7920,22 @@
       <c r="J79" t="s">
         <v>349</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="s">
+        <v>639</v>
+      </c>
+      <c r="L79">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B80" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C80" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D80" t="s">
         <v>119</v>
@@ -7660,19 +7958,22 @@
       <c r="J80" t="s">
         <v>349</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="s">
+        <v>639</v>
+      </c>
+      <c r="L80">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B81" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C81" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D81" t="s">
         <v>119</v>
@@ -7695,19 +7996,22 @@
       <c r="J81" t="s">
         <v>349</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="s">
+        <v>639</v>
+      </c>
+      <c r="L81">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B82" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C82" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D82" t="s">
         <v>119</v>
@@ -7730,19 +8034,22 @@
       <c r="J82" t="s">
         <v>349</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="s">
+        <v>639</v>
+      </c>
+      <c r="L82">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C83" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D83" t="s">
         <v>119</v>
@@ -7765,19 +8072,22 @@
       <c r="J83" t="s">
         <v>349</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C84" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D84" t="s">
         <v>119</v>
@@ -7800,19 +8110,22 @@
       <c r="J84" t="s">
         <v>349</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="s">
+        <v>639</v>
+      </c>
+      <c r="L84">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C85" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D85" t="s">
         <v>119</v>
@@ -7835,19 +8148,22 @@
       <c r="J85" t="s">
         <v>349</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="s">
+        <v>639</v>
+      </c>
+      <c r="L85">
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C86" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D86" t="s">
         <v>119</v>
@@ -7870,19 +8186,22 @@
       <c r="J86" t="s">
         <v>349</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="s">
+        <v>639</v>
+      </c>
+      <c r="L86">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B87" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C87" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D87" t="s">
         <v>119</v>
@@ -7905,19 +8224,22 @@
       <c r="J87" t="s">
         <v>349</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="s">
+        <v>639</v>
+      </c>
+      <c r="L87">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C88" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D88" t="s">
         <v>119</v>
@@ -7940,19 +8262,22 @@
       <c r="J88" t="s">
         <v>349</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="s">
+        <v>639</v>
+      </c>
+      <c r="L88">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C89" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D89" t="s">
         <v>119</v>
@@ -7975,19 +8300,22 @@
       <c r="J89" t="s">
         <v>349</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="s">
+        <v>639</v>
+      </c>
+      <c r="L89">
         <v>1250</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C90" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D90" t="s">
         <v>119</v>
@@ -8010,19 +8338,22 @@
       <c r="J90" t="s">
         <v>349</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="s">
+        <v>639</v>
+      </c>
+      <c r="L90">
         <v>3500</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D91" t="s">
         <v>119</v>
@@ -8045,19 +8376,22 @@
       <c r="J91" t="s">
         <v>349</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="s">
+        <v>639</v>
+      </c>
+      <c r="L91">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C92" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D92" t="s">
         <v>119</v>
@@ -8080,19 +8414,22 @@
       <c r="J92" t="s">
         <v>349</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="s">
+        <v>639</v>
+      </c>
+      <c r="L92">
         <v>1100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B93" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C93" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D93" t="s">
         <v>119</v>
@@ -8115,19 +8452,22 @@
       <c r="J93" t="s">
         <v>349</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="s">
+        <v>639</v>
+      </c>
+      <c r="L93">
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B94" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C94" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D94" t="s">
         <v>119</v>
@@ -8150,19 +8490,22 @@
       <c r="J94" t="s">
         <v>349</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="s">
+        <v>639</v>
+      </c>
+      <c r="L94">
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B95" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C95" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D95" t="s">
         <v>119</v>
@@ -8185,19 +8528,22 @@
       <c r="J95" t="s">
         <v>349</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="s">
+        <v>639</v>
+      </c>
+      <c r="L95">
         <v>6000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B96" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C96" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D96" t="s">
         <v>119</v>
@@ -8220,19 +8566,22 @@
       <c r="J96" t="s">
         <v>349</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="s">
+        <v>639</v>
+      </c>
+      <c r="L96">
         <v>6000</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C97" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D97" t="s">
         <v>119</v>
@@ -8255,19 +8604,22 @@
       <c r="J97" t="s">
         <v>349</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="s">
+        <v>639</v>
+      </c>
+      <c r="L97">
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B98" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C98" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D98" t="s">
         <v>119</v>
@@ -8290,19 +8642,22 @@
       <c r="J98" t="s">
         <v>349</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="s">
+        <v>639</v>
+      </c>
+      <c r="L98">
         <v>3000</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C99" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -8323,21 +8678,24 @@
         <v>838184936</v>
       </c>
       <c r="J99" t="s">
-        <v>353</v>
-      </c>
-      <c r="K99">
+        <v>350</v>
+      </c>
+      <c r="K99" t="s">
+        <v>638</v>
+      </c>
+      <c r="L99">
         <v>45000</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C100" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D100" t="s">
         <v>119</v>
@@ -8358,21 +8716,24 @@
         <v>608940143</v>
       </c>
       <c r="J100" t="s">
-        <v>353</v>
-      </c>
-      <c r="K100">
+        <v>350</v>
+      </c>
+      <c r="K100" t="s">
+        <v>638</v>
+      </c>
+      <c r="L100">
         <v>32000</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B101" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C101" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D101" t="s">
         <v>119</v>
@@ -8393,21 +8754,24 @@
         <v>909423007</v>
       </c>
       <c r="J101" t="s">
-        <v>353</v>
-      </c>
-      <c r="K101">
+        <v>350</v>
+      </c>
+      <c r="K101" t="s">
+        <v>638</v>
+      </c>
+      <c r="L101">
         <v>30000</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B102" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C102" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D102" t="s">
         <v>119</v>
@@ -8428,21 +8792,24 @@
         <v>151207901</v>
       </c>
       <c r="J102" t="s">
-        <v>353</v>
-      </c>
-      <c r="K102">
+        <v>350</v>
+      </c>
+      <c r="K102" t="s">
+        <v>638</v>
+      </c>
+      <c r="L102">
         <v>4500</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C103" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D103" t="s">
         <v>119</v>
@@ -8463,21 +8830,24 @@
         <v>365150430</v>
       </c>
       <c r="J103" t="s">
-        <v>353</v>
-      </c>
-      <c r="K103">
+        <v>350</v>
+      </c>
+      <c r="K103" t="s">
+        <v>638</v>
+      </c>
+      <c r="L103">
         <v>2500</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C104" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D104" t="s">
         <v>119</v>
@@ -8498,21 +8868,24 @@
         <v>722608660</v>
       </c>
       <c r="J104" t="s">
-        <v>353</v>
-      </c>
-      <c r="K104">
+        <v>350</v>
+      </c>
+      <c r="K104" t="s">
+        <v>638</v>
+      </c>
+      <c r="L104">
         <v>30000</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B105" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C105" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D105" t="s">
         <v>119</v>
@@ -8533,21 +8906,24 @@
         <v>850723373</v>
       </c>
       <c r="J105" t="s">
-        <v>353</v>
-      </c>
-      <c r="K105">
+        <v>350</v>
+      </c>
+      <c r="K105" t="s">
+        <v>638</v>
+      </c>
+      <c r="L105">
         <v>12000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B106" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C106" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D106" t="s">
         <v>119</v>
@@ -8568,21 +8944,24 @@
         <v>768951947</v>
       </c>
       <c r="J106" t="s">
-        <v>353</v>
-      </c>
-      <c r="K106">
+        <v>350</v>
+      </c>
+      <c r="K106" t="s">
+        <v>638</v>
+      </c>
+      <c r="L106">
         <v>15000</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B107" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C107" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D107" t="s">
         <v>119</v>
@@ -8603,21 +8982,24 @@
         <v>991072639</v>
       </c>
       <c r="J107" t="s">
-        <v>353</v>
-      </c>
-      <c r="K107">
         <v>350</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K107" t="s">
+        <v>638</v>
+      </c>
+      <c r="L107">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B108" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C108" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D108" t="s">
         <v>119</v>
@@ -8638,21 +9020,24 @@
         <v>807515573</v>
       </c>
       <c r="J108" t="s">
-        <v>353</v>
-      </c>
-      <c r="K108">
+        <v>350</v>
+      </c>
+      <c r="K108" t="s">
+        <v>638</v>
+      </c>
+      <c r="L108">
         <v>10000</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B109" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C109" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D109" t="s">
         <v>119</v>
@@ -8675,19 +9060,22 @@
       <c r="J109" t="s">
         <v>349</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="s">
+        <v>640</v>
+      </c>
+      <c r="L109">
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B110" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C110" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D110" t="s">
         <v>119</v>
@@ -8710,19 +9098,22 @@
       <c r="J110" t="s">
         <v>349</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="s">
+        <v>640</v>
+      </c>
+      <c r="L110">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B111" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C111" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D111" t="s">
         <v>119</v>
@@ -8745,19 +9136,22 @@
       <c r="J111" t="s">
         <v>349</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="s">
+        <v>640</v>
+      </c>
+      <c r="L111">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B112" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C112" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D112" t="s">
         <v>119</v>
@@ -8780,19 +9174,22 @@
       <c r="J112" t="s">
         <v>349</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="s">
+        <v>640</v>
+      </c>
+      <c r="L112">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C113" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D113" t="s">
         <v>119</v>
@@ -8815,19 +9212,22 @@
       <c r="J113" t="s">
         <v>349</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="s">
+        <v>640</v>
+      </c>
+      <c r="L113">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B114" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C114" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D114" t="s">
         <v>119</v>
@@ -8850,19 +9250,22 @@
       <c r="J114" t="s">
         <v>349</v>
       </c>
-      <c r="K114">
+      <c r="K114" t="s">
+        <v>640</v>
+      </c>
+      <c r="L114">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B115" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C115" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D115" t="s">
         <v>119</v>
@@ -8885,19 +9288,22 @@
       <c r="J115" t="s">
         <v>349</v>
       </c>
-      <c r="K115">
+      <c r="K115" t="s">
+        <v>640</v>
+      </c>
+      <c r="L115">
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B116" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C116" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D116" t="s">
         <v>119</v>
@@ -8920,19 +9326,22 @@
       <c r="J116" t="s">
         <v>349</v>
       </c>
-      <c r="K116">
+      <c r="K116" t="s">
+        <v>640</v>
+      </c>
+      <c r="L116">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B117" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C117" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D117" t="s">
         <v>119</v>
@@ -8955,19 +9364,22 @@
       <c r="J117" t="s">
         <v>349</v>
       </c>
-      <c r="K117">
+      <c r="K117" t="s">
+        <v>640</v>
+      </c>
+      <c r="L117">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B118" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C118" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D118" t="s">
         <v>119</v>
@@ -8990,19 +9402,22 @@
       <c r="J118" t="s">
         <v>349</v>
       </c>
-      <c r="K118">
+      <c r="K118" t="s">
+        <v>640</v>
+      </c>
+      <c r="L118">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B119" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C119" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D119" t="s">
         <v>119</v>
@@ -9025,19 +9440,22 @@
       <c r="J119" t="s">
         <v>349</v>
       </c>
-      <c r="K119">
+      <c r="K119" t="s">
+        <v>640</v>
+      </c>
+      <c r="L119">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B120" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C120" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D120" t="s">
         <v>119</v>
@@ -9060,19 +9478,22 @@
       <c r="J120" t="s">
         <v>349</v>
       </c>
-      <c r="K120">
+      <c r="K120" t="s">
+        <v>640</v>
+      </c>
+      <c r="L120">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B121" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C121" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D121" t="s">
         <v>119</v>
@@ -9095,19 +9516,22 @@
       <c r="J121" t="s">
         <v>349</v>
       </c>
-      <c r="K121">
+      <c r="K121" t="s">
+        <v>640</v>
+      </c>
+      <c r="L121">
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B122" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C122" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D122" t="s">
         <v>119</v>
@@ -9130,19 +9554,22 @@
       <c r="J122" t="s">
         <v>349</v>
       </c>
-      <c r="K122">
+      <c r="K122" t="s">
+        <v>640</v>
+      </c>
+      <c r="L122">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B123" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C123" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D123" t="s">
         <v>119</v>
@@ -9165,19 +9592,22 @@
       <c r="J123" t="s">
         <v>349</v>
       </c>
-      <c r="K123">
+      <c r="K123" t="s">
+        <v>640</v>
+      </c>
+      <c r="L123">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C124" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D124" t="s">
         <v>119</v>
@@ -9200,19 +9630,22 @@
       <c r="J124" t="s">
         <v>98</v>
       </c>
-      <c r="K124">
+      <c r="K124" t="s">
+        <v>641</v>
+      </c>
+      <c r="L124">
         <v>3200</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B125" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D125" t="s">
         <v>119</v>
@@ -9224,7 +9657,7 @@
         <v>611</v>
       </c>
       <c r="G125" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H125">
         <v>138</v>
@@ -9235,19 +9668,22 @@
       <c r="J125" t="s">
         <v>98</v>
       </c>
-      <c r="K125">
+      <c r="K125" t="s">
+        <v>641</v>
+      </c>
+      <c r="L125">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B126" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C126" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D126" t="s">
         <v>119</v>
@@ -9268,21 +9704,24 @@
         <v>123478147</v>
       </c>
       <c r="J126" t="s">
-        <v>351</v>
-      </c>
-      <c r="K126">
+        <v>643</v>
+      </c>
+      <c r="K126" t="s">
+        <v>642</v>
+      </c>
+      <c r="L126">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B127" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C127" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D127" t="s">
         <v>119</v>
@@ -9303,21 +9742,24 @@
         <v>719468599</v>
       </c>
       <c r="J127" t="s">
-        <v>351</v>
-      </c>
-      <c r="K127">
+        <v>643</v>
+      </c>
+      <c r="K127" t="s">
+        <v>642</v>
+      </c>
+      <c r="L127">
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B128" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C128" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D128" t="s">
         <v>119</v>
@@ -9338,21 +9780,24 @@
         <v>557968416</v>
       </c>
       <c r="J128" t="s">
-        <v>351</v>
-      </c>
-      <c r="K128">
+        <v>643</v>
+      </c>
+      <c r="K128" t="s">
+        <v>642</v>
+      </c>
+      <c r="L128">
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B129" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C129" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D129" t="s">
         <v>119</v>
@@ -9373,21 +9818,24 @@
         <v>995474125</v>
       </c>
       <c r="J129" t="s">
-        <v>351</v>
-      </c>
-      <c r="K129">
+        <v>643</v>
+      </c>
+      <c r="K129" t="s">
+        <v>642</v>
+      </c>
+      <c r="L129">
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B130" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C130" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D130" t="s">
         <v>119</v>
@@ -9408,21 +9856,24 @@
         <v>302891595</v>
       </c>
       <c r="J130" t="s">
-        <v>351</v>
-      </c>
-      <c r="K130">
+        <v>643</v>
+      </c>
+      <c r="K130" t="s">
+        <v>642</v>
+      </c>
+      <c r="L130">
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B131" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C131" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D131" t="s">
         <v>119</v>
@@ -9434,7 +9885,7 @@
         <v>518</v>
       </c>
       <c r="G131" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H131">
         <v>513</v>
@@ -9443,21 +9894,24 @@
         <v>284283836</v>
       </c>
       <c r="J131" t="s">
-        <v>352</v>
-      </c>
-      <c r="K131">
+        <v>644</v>
+      </c>
+      <c r="K131" t="s">
+        <v>645</v>
+      </c>
+      <c r="L131">
         <v>15000</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B132" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C132" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D132" t="s">
         <v>119</v>
@@ -9469,7 +9923,7 @@
         <v>518</v>
       </c>
       <c r="G132" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H132">
         <v>211</v>
@@ -9478,21 +9932,24 @@
         <v>173225730</v>
       </c>
       <c r="J132" t="s">
-        <v>352</v>
-      </c>
-      <c r="K132">
+        <v>644</v>
+      </c>
+      <c r="K132" t="s">
+        <v>645</v>
+      </c>
+      <c r="L132">
         <v>10000</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B133" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C133" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D133" t="s">
         <v>119</v>
@@ -9504,7 +9961,7 @@
         <v>518</v>
       </c>
       <c r="G133" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H133">
         <v>513</v>
@@ -9513,21 +9970,24 @@
         <v>217468068</v>
       </c>
       <c r="J133" t="s">
-        <v>352</v>
-      </c>
-      <c r="K133">
+        <v>644</v>
+      </c>
+      <c r="K133" t="s">
+        <v>645</v>
+      </c>
+      <c r="L133">
         <v>5000</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B134" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C134" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D134" t="s">
         <v>119</v>
@@ -9539,7 +9999,7 @@
         <v>518</v>
       </c>
       <c r="G134" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H134">
         <v>513</v>
@@ -9548,21 +10008,24 @@
         <v>502840332</v>
       </c>
       <c r="J134" t="s">
-        <v>352</v>
-      </c>
-      <c r="K134">
+        <v>644</v>
+      </c>
+      <c r="K134" t="s">
+        <v>645</v>
+      </c>
+      <c r="L134">
         <v>25000</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B135" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C135" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D135" t="s">
         <v>119</v>
@@ -9585,19 +10048,22 @@
       <c r="J135" t="s">
         <v>349</v>
       </c>
-      <c r="K135">
+      <c r="K135" t="s">
+        <v>646</v>
+      </c>
+      <c r="L135">
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C136" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D136" t="s">
         <v>119</v>
@@ -9620,19 +10086,22 @@
       <c r="J136" t="s">
         <v>349</v>
       </c>
-      <c r="K136">
+      <c r="K136" t="s">
+        <v>646</v>
+      </c>
+      <c r="L136">
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B137" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C137" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D137" t="s">
         <v>119</v>
@@ -9655,19 +10124,22 @@
       <c r="J137" t="s">
         <v>349</v>
       </c>
-      <c r="K137">
+      <c r="K137" t="s">
+        <v>646</v>
+      </c>
+      <c r="L137">
         <v>12500</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B138" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C138" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D138" t="s">
         <v>119</v>
@@ -9690,19 +10162,22 @@
       <c r="J138" t="s">
         <v>349</v>
       </c>
-      <c r="K138">
+      <c r="K138" t="s">
+        <v>646</v>
+      </c>
+      <c r="L138">
         <v>3000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B139" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C139" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D139" t="s">
         <v>119</v>
@@ -9725,19 +10200,22 @@
       <c r="J139" t="s">
         <v>349</v>
       </c>
-      <c r="K139">
+      <c r="K139" t="s">
+        <v>646</v>
+      </c>
+      <c r="L139">
         <v>2500</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B140" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D140" t="s">
         <v>119</v>
@@ -9760,19 +10238,22 @@
       <c r="J140" t="s">
         <v>349</v>
       </c>
-      <c r="K140">
+      <c r="K140" t="s">
+        <v>646</v>
+      </c>
+      <c r="L140">
         <v>30000</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B141" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D141" t="s">
         <v>119</v>
@@ -9795,19 +10276,22 @@
       <c r="J141" t="s">
         <v>349</v>
       </c>
-      <c r="K141">
+      <c r="K141" t="s">
+        <v>646</v>
+      </c>
+      <c r="L141">
         <v>25000</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B142" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D142" t="s">
         <v>119</v>
@@ -9830,19 +10314,22 @@
       <c r="J142" t="s">
         <v>349</v>
       </c>
-      <c r="K142">
+      <c r="K142" t="s">
+        <v>646</v>
+      </c>
+      <c r="L142">
         <v>8000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B143" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C143" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D143" t="s">
         <v>119</v>
@@ -9865,19 +10352,22 @@
       <c r="J143" t="s">
         <v>349</v>
       </c>
-      <c r="K143">
+      <c r="K143" t="s">
+        <v>646</v>
+      </c>
+      <c r="L143">
         <v>5000</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B144" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C144" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D144" t="s">
         <v>119</v>
@@ -9900,19 +10390,22 @@
       <c r="J144" t="s">
         <v>349</v>
       </c>
-      <c r="K144">
+      <c r="K144" t="s">
+        <v>646</v>
+      </c>
+      <c r="L144">
         <v>4500</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C145" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D145" t="s">
         <v>119</v>
@@ -9935,19 +10428,22 @@
       <c r="J145" t="s">
         <v>349</v>
       </c>
-      <c r="K145">
+      <c r="K145" t="s">
+        <v>646</v>
+      </c>
+      <c r="L145">
         <v>4500</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B146" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C146" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D146" t="s">
         <v>119</v>
@@ -9970,19 +10466,22 @@
       <c r="J146" t="s">
         <v>349</v>
       </c>
-      <c r="K146">
+      <c r="K146" t="s">
+        <v>646</v>
+      </c>
+      <c r="L146">
         <v>3000</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B147" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C147" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D147" t="s">
         <v>119</v>
@@ -10005,19 +10504,22 @@
       <c r="J147" t="s">
         <v>349</v>
       </c>
-      <c r="K147">
+      <c r="K147" t="s">
+        <v>646</v>
+      </c>
+      <c r="L147">
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B148" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C148" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D148" t="s">
         <v>119</v>
@@ -10040,19 +10542,22 @@
       <c r="J148" t="s">
         <v>349</v>
       </c>
-      <c r="K148">
+      <c r="K148" t="s">
+        <v>646</v>
+      </c>
+      <c r="L148">
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B149" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C149" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D149" t="s">
         <v>119</v>
@@ -10075,19 +10580,22 @@
       <c r="J149" t="s">
         <v>349</v>
       </c>
-      <c r="K149">
+      <c r="K149" t="s">
+        <v>646</v>
+      </c>
+      <c r="L149">
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B150" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C150" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D150" t="s">
         <v>119</v>
@@ -10110,19 +10618,22 @@
       <c r="J150" t="s">
         <v>349</v>
       </c>
-      <c r="K150">
+      <c r="K150" t="s">
+        <v>646</v>
+      </c>
+      <c r="L150">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B151" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C151" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D151" t="s">
         <v>119</v>
@@ -10145,19 +10656,22 @@
       <c r="J151" t="s">
         <v>349</v>
       </c>
-      <c r="K151">
+      <c r="K151" t="s">
+        <v>646</v>
+      </c>
+      <c r="L151">
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D152" t="s">
         <v>119</v>
@@ -10180,19 +10694,22 @@
       <c r="J152" t="s">
         <v>349</v>
       </c>
-      <c r="K152">
+      <c r="K152" t="s">
+        <v>646</v>
+      </c>
+      <c r="L152">
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C153" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D153" t="s">
         <v>119</v>
@@ -10215,19 +10732,22 @@
       <c r="J153" t="s">
         <v>349</v>
       </c>
-      <c r="K153">
+      <c r="K153" t="s">
+        <v>646</v>
+      </c>
+      <c r="L153">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B154" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C154" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D154" t="s">
         <v>119</v>
@@ -10250,19 +10770,22 @@
       <c r="J154" t="s">
         <v>349</v>
       </c>
-      <c r="K154">
+      <c r="K154" t="s">
+        <v>646</v>
+      </c>
+      <c r="L154">
         <v>1200</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B155" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C155" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D155" t="s">
         <v>119</v>
@@ -10285,19 +10808,22 @@
       <c r="J155" t="s">
         <v>349</v>
       </c>
-      <c r="K155">
+      <c r="K155" t="s">
+        <v>646</v>
+      </c>
+      <c r="L155">
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B156" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C156" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D156" t="s">
         <v>119</v>
@@ -10320,19 +10846,22 @@
       <c r="J156" t="s">
         <v>349</v>
       </c>
-      <c r="K156">
+      <c r="K156" t="s">
+        <v>646</v>
+      </c>
+      <c r="L156">
         <v>3000</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B157" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C157" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D157" t="s">
         <v>119</v>
@@ -10355,19 +10884,22 @@
       <c r="J157" t="s">
         <v>349</v>
       </c>
-      <c r="K157">
+      <c r="K157" t="s">
+        <v>646</v>
+      </c>
+      <c r="L157">
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B158" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C158" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D158" t="s">
         <v>119</v>
@@ -10390,19 +10922,22 @@
       <c r="J158" t="s">
         <v>349</v>
       </c>
-      <c r="K158">
+      <c r="K158" t="s">
+        <v>646</v>
+      </c>
+      <c r="L158">
         <v>450</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B159" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C159" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D159" t="s">
         <v>119</v>
@@ -10425,19 +10960,22 @@
       <c r="J159" t="s">
         <v>349</v>
       </c>
-      <c r="K159">
+      <c r="K159" t="s">
+        <v>646</v>
+      </c>
+      <c r="L159">
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B160" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C160" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D160" t="s">
         <v>119</v>
@@ -10460,19 +10998,22 @@
       <c r="J160" t="s">
         <v>349</v>
       </c>
-      <c r="K160">
+      <c r="K160" t="s">
+        <v>646</v>
+      </c>
+      <c r="L160">
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B161" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C161" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D161" t="s">
         <v>119</v>
@@ -10495,19 +11036,22 @@
       <c r="J161" t="s">
         <v>349</v>
       </c>
-      <c r="K161">
+      <c r="K161" t="s">
+        <v>646</v>
+      </c>
+      <c r="L161">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B162" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C162" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D162" t="s">
         <v>119</v>
@@ -10530,19 +11074,22 @@
       <c r="J162" t="s">
         <v>349</v>
       </c>
-      <c r="K162">
+      <c r="K162" t="s">
+        <v>646</v>
+      </c>
+      <c r="L162">
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B163" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C163" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D163" t="s">
         <v>119</v>
@@ -10565,19 +11112,22 @@
       <c r="J163" t="s">
         <v>349</v>
       </c>
-      <c r="K163">
+      <c r="K163" t="s">
+        <v>646</v>
+      </c>
+      <c r="L163">
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B164" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C164" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D164" t="s">
         <v>119</v>
@@ -10600,19 +11150,22 @@
       <c r="J164" t="s">
         <v>349</v>
       </c>
-      <c r="K164">
+      <c r="K164" t="s">
+        <v>646</v>
+      </c>
+      <c r="L164">
         <v>225</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B165" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C165" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D165" t="s">
         <v>119</v>
@@ -10635,19 +11188,22 @@
       <c r="J165" t="s">
         <v>349</v>
       </c>
-      <c r="K165">
+      <c r="K165" t="s">
+        <v>646</v>
+      </c>
+      <c r="L165">
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B166" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C166" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D166" t="s">
         <v>119</v>
@@ -10670,19 +11226,22 @@
       <c r="J166" t="s">
         <v>349</v>
       </c>
-      <c r="K166">
+      <c r="K166" t="s">
+        <v>646</v>
+      </c>
+      <c r="L166">
         <v>450</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B167" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C167" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D167" t="s">
         <v>119</v>
@@ -10705,19 +11264,22 @@
       <c r="J167" t="s">
         <v>349</v>
       </c>
-      <c r="K167">
+      <c r="K167" t="s">
+        <v>646</v>
+      </c>
+      <c r="L167">
         <v>700</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B168" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C168" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D168" t="s">
         <v>119</v>
@@ -10740,19 +11302,22 @@
       <c r="J168" t="s">
         <v>349</v>
       </c>
-      <c r="K168">
+      <c r="K168" t="s">
+        <v>646</v>
+      </c>
+      <c r="L168">
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>89</v>
       </c>
       <c r="B169" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C169" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D169" t="s">
         <v>119</v>
@@ -10764,7 +11329,7 @@
         <v>561</v>
       </c>
       <c r="G169" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H169">
         <v>211</v>
@@ -10773,21 +11338,24 @@
         <v>730477306</v>
       </c>
       <c r="J169" t="s">
-        <v>352</v>
-      </c>
-      <c r="K169">
+        <v>627</v>
+      </c>
+      <c r="K169" t="s">
+        <v>647</v>
+      </c>
+      <c r="L169">
         <v>30000</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B170" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C170" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D170" t="s">
         <v>119</v>
@@ -10799,7 +11367,7 @@
         <v>561</v>
       </c>
       <c r="G170" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H170">
         <v>211</v>
@@ -10808,21 +11376,24 @@
         <v>347617633</v>
       </c>
       <c r="J170" t="s">
-        <v>352</v>
-      </c>
-      <c r="K170">
+        <v>627</v>
+      </c>
+      <c r="K170" t="s">
+        <v>647</v>
+      </c>
+      <c r="L170">
         <v>15000</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C171" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D171" t="s">
         <v>119</v>
@@ -10834,7 +11405,7 @@
         <v>561</v>
       </c>
       <c r="G171" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H171">
         <v>513</v>
@@ -10843,21 +11414,24 @@
         <v>967625936</v>
       </c>
       <c r="J171" t="s">
-        <v>352</v>
-      </c>
-      <c r="K171">
+        <v>627</v>
+      </c>
+      <c r="K171" t="s">
+        <v>647</v>
+      </c>
+      <c r="L171">
         <v>15000</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B172" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C172" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D172" t="s">
         <v>119</v>
@@ -10869,7 +11443,7 @@
         <v>561</v>
       </c>
       <c r="G172" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H172">
         <v>211</v>
@@ -10878,9 +11452,12 @@
         <v>937283924</v>
       </c>
       <c r="J172" t="s">
-        <v>352</v>
-      </c>
-      <c r="K172">
+        <v>627</v>
+      </c>
+      <c r="K172" t="s">
+        <v>647</v>
+      </c>
+      <c r="L172">
         <v>20000</v>
       </c>
     </row>
@@ -10899,7 +11476,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10912,10 +11489,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>85</v>
@@ -10939,30 +11516,30 @@
         <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F2" s="9">
         <v>522</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H2" s="9">
         <v>211</v>
@@ -10976,25 +11553,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F3">
         <v>522</v>
       </c>
       <c r="G3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H3">
         <v>211</v>
@@ -11005,25 +11582,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F4" s="9">
         <v>522</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H4" s="9">
         <v>211</v>
@@ -11037,25 +11614,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F5">
         <v>522</v>
       </c>
       <c r="G5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H5">
         <v>513</v>
@@ -11066,25 +11643,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F6" s="9">
         <v>522</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H6" s="9">
         <v>513</v>
@@ -11098,25 +11675,25 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F7">
         <v>522</v>
       </c>
       <c r="G7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H7">
         <v>513</v>
@@ -11127,25 +11704,25 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F8" s="9">
         <v>522</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H8" s="9">
         <v>138</v>
@@ -11159,25 +11736,25 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F9">
         <v>522</v>
       </c>
       <c r="G9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H9">
         <v>138</v>
@@ -11188,25 +11765,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F10" s="9">
         <v>522</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H10" s="9">
         <v>138</v>
@@ -11220,25 +11797,25 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F11">
         <v>522</v>
       </c>
       <c r="G11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H11">
         <v>138</v>
@@ -11249,25 +11826,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F12" s="9">
         <v>522</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H12" s="9">
         <v>138</v>
@@ -11281,25 +11858,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F13">
         <v>522</v>
       </c>
       <c r="G13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H13">
         <v>138</v>
@@ -11310,25 +11887,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F14" s="10">
         <v>522</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H14" s="10">
         <v>138</v>
@@ -11342,25 +11919,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B15" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D15" t="s">
         <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F15">
         <v>522</v>
       </c>
       <c r="G15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H15">
         <v>138</v>
@@ -11371,25 +11948,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F16">
         <v>522</v>
       </c>
       <c r="G16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H16">
         <v>138</v>
@@ -11400,25 +11977,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
         <v>622</v>
-      </c>
-      <c r="B17" t="s">
-        <v>628</v>
-      </c>
-      <c r="C17" t="s">
-        <v>566</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>625</v>
       </c>
       <c r="F17">
         <v>522</v>
       </c>
       <c r="G17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H17">
         <v>211</v>
@@ -11429,25 +12006,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>620</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" t="s">
+        <v>563</v>
+      </c>
+      <c r="E18" t="s">
         <v>623</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="C18" t="s">
-        <v>566</v>
-      </c>
-      <c r="D18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E18" t="s">
-        <v>626</v>
       </c>
       <c r="F18">
         <v>522</v>
       </c>
       <c r="G18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H18">
         <v>211</v>
@@ -11458,25 +12035,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>621</v>
+      </c>
+      <c r="B19" t="s">
+        <v>625</v>
+      </c>
+      <c r="C19" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
         <v>624</v>
-      </c>
-      <c r="B19" t="s">
-        <v>628</v>
-      </c>
-      <c r="C19" t="s">
-        <v>566</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" t="s">
-        <v>627</v>
       </c>
       <c r="F19">
         <v>522</v>
       </c>
       <c r="G19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H19">
         <v>513</v>

--- a/agents/agent_profiles_source.xlsx
+++ b/agents/agent_profiles_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/dev/Synthetic_Modeling/Synthetic_Modeling/agents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E6235B-41A9-D44B-9395-F745A61C9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30290B94-2012-8C45-8EE2-8A9E9A4C1E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38060" yWindow="1680" windowWidth="33600" windowHeight="19140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
